--- a/biorefineries/oxalic/analyses/full/parameter_distributions/oxalic_broth_product/parameter-distributions_sugarcane_oxalic-broth_100mL.xlsx
+++ b/biorefineries/oxalic/analyses/full/parameter_distributions/oxalic_broth_product/parameter-distributions_sugarcane_oxalic-broth_100mL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\oxalic\analyses\full\parameter_distributions\oxalic_broth_product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGB\Documents\GitHub\Bioindustrial-Park_oxalic\biorefineries\oxalic\analyses\full\parameter_distributions\oxalic_broth_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D1EA5-093D-4AC6-816A-8D1F3FA89B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B8769E-7BA0-42F9-A768-71F69CB6C533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,12 +293,6 @@
     <t>Fermentation lime loading</t>
   </si>
   <si>
-    <t>mol/L</t>
-  </si>
-  <si>
-    <t>R302.lime_mol_per_L_loading = x</t>
-  </si>
-  <si>
     <t>% as decimal</t>
   </si>
   <si>
@@ -315,6 +309,12 @@
   </si>
   <si>
     <t>diammonium_sulfate_fresh.price = x</t>
+  </si>
+  <si>
+    <t>mol/mol</t>
+  </si>
+  <si>
+    <t>R302.lime_mol_per_mol_loading = x</t>
   </si>
 </sst>
 </file>
@@ -686,20 +686,20 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A24:XFD26"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="40.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" customWidth="1"/>
-    <col min="11" max="11" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="40.7890625" customWidth="1"/>
+    <col min="2" max="2" width="20.62890625" customWidth="1"/>
+    <col min="4" max="4" width="12.15625" customWidth="1"/>
+    <col min="6" max="6" width="14.47265625" customWidth="1"/>
+    <col min="10" max="10" width="10.62890625" customWidth="1"/>
+    <col min="11" max="11" width="19.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>56</v>
       </c>
@@ -789,14 +789,13 @@
         <v>42</v>
       </c>
       <c r="G3" s="5">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H3" s="5">
-        <f>E3</f>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="I3" s="5">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
@@ -804,10 +803,10 @@
       </c>
       <c r="Q3" s="6">
         <f>IF(E3=H3, 1, IF(F3=$F$2, 1, 0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -847,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -884,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -921,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -958,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>66</v>
       </c>
@@ -993,9 +992,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1021,14 +1020,14 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>78</v>
       </c>
@@ -1139,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -1153,22 +1152,22 @@
         <v>53</v>
       </c>
       <c r="E13" s="3">
-        <v>134000</v>
+        <v>126929</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G13">
         <f>E13*0.8</f>
-        <v>107200</v>
+        <v>101543.20000000001</v>
       </c>
       <c r="H13" s="3">
         <f>E13</f>
-        <v>134000</v>
+        <v>126929</v>
       </c>
       <c r="I13" s="3">
         <f>E13*1.2</f>
-        <v>160800</v>
+        <v>152314.79999999999</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
@@ -1179,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -1286,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1323,9 +1322,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>44</v>
@@ -1353,14 +1352,14 @@
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>84</v>
       </c>
@@ -1371,37 +1370,36 @@
         <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E19" s="5">
-        <f>0.64/2</f>
-        <v>0.32</v>
+        <v>0.91</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="5">
-        <f>0.6/2</f>
-        <v>0.3</v>
+        <f>H19*0.8</f>
+        <v>0.72800000000000009</v>
       </c>
       <c r="H19" s="5">
         <f>E19</f>
-        <v>0.32</v>
+        <v>0.91</v>
       </c>
       <c r="I19" s="5">
-        <f>0.71/2</f>
-        <v>0.35499999999999998</v>
+        <f>H19*1.2</f>
+        <v>1.0920000000000001</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>63</v>
       </c>
@@ -1412,7 +1410,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -1436,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
@@ -1447,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -1471,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -1482,7 +1480,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E22" s="3">
         <v>0.95</v>
@@ -1507,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -1518,7 +1516,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" s="5">
         <v>7.0000000000000001E-3</v>
@@ -1544,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
         <v>71</v>
       </c>
@@ -1558,19 +1556,19 @@
         <v>20</v>
       </c>
       <c r="E24" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="5">
         <f>0.8*E24</f>
-        <v>0.11200000000000002</v>
+        <v>0.128</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5">
         <f>1.2*E24</f>
-        <v>0.16800000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5" t="s">
@@ -1581,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -1595,19 +1593,19 @@
         <v>12</v>
       </c>
       <c r="E25" s="5">
-        <v>33.225999999999999</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="5">
         <f>E25*0.8</f>
-        <v>26.5808</v>
+        <v>32.24</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5">
         <f>E25*1.2</f>
-        <v>39.871199999999995</v>
+        <v>48.359999999999992</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
@@ -1618,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -1632,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="E26" s="7">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="5">
         <f>E26*0.8</f>
-        <v>8.8000000000000009E-2</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5">
         <f>E26*1.2</f>
-        <v>0.13200000000000001</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
@@ -1655,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
@@ -1692,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
@@ -1729,9 +1727,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>14</v>
@@ -1766,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -1803,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
         <v>49</v>
       </c>

--- a/biorefineries/oxalic/analyses/full/parameter_distributions/oxalic_broth_product/parameter-distributions_sugarcane_oxalic-broth_100mL.xlsx
+++ b/biorefineries/oxalic/analyses/full/parameter_distributions/oxalic_broth_product/parameter-distributions_sugarcane_oxalic-broth_100mL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGB\Documents\GitHub\Bioindustrial-Park_oxalic\biorefineries\oxalic\analyses\full\parameter_distributions\oxalic_broth_product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGB\Documents\GitHub\Bioindustrial-Park\biorefineries\oxalic\analyses\full\parameter_distributions\oxalic_broth_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B8769E-7BA0-42F9-A768-71F69CB6C533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E2B44C-98FB-46E8-B27F-12C8E13303BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22944" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t>Parameter name</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Feedstock unit price</t>
   </si>
   <si>
-    <t>Natural gas unit price</t>
-  </si>
-  <si>
     <t>Electricity unit price</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
   </si>
   <si>
     <t>Separation</t>
-  </si>
-  <si>
-    <t>BT701.natural_gas_price = x</t>
   </si>
   <si>
     <t>Turbogenerator efficiency</t>
@@ -683,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -707,13 +701,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -728,21 +722,21 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -751,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3">
         <v>0.9</v>
@@ -762,7 +756,7 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <f>IF(E2=H2, 1, IF(F2=$F$2, 1, 0))</f>
@@ -771,22 +765,22 @@
     </row>
     <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="5">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="5">
         <v>180</v>
@@ -799,11 +793,11 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="6">
         <f>IF(E3=H3, 1, IF(F3=$F$2, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -814,7 +808,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
@@ -823,7 +817,7 @@
         <v>3.5920000000000001E-2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="5">
         <f>E4*0.8</f>
@@ -839,7 +833,7 @@
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="6">
         <f t="shared" ref="Q4" si="0">IF(E4=H4, 1, IF(F4=$F$2, 1, 0))</f>
@@ -854,66 +848,66 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3">
-        <v>0.27650000000000002</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3">
-        <v>0.21629999999999999</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H5" s="3">
-        <v>0.27650000000000002</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I5" s="3">
-        <v>0.33210000000000001</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q27" si="1">IF(E5=H5, 1, IF(F5=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q5:Q26" si="1">IF(E5=H5, 1, IF(F5=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
+        <f>E6*0.8</f>
+        <v>5.9760000000000008E-2</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <v>7.3999999999999996E-2</v>
+        <f>1.2*E6</f>
+        <v>8.9639999999999997E-2</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
@@ -922,105 +916,105 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3">
-        <v>7.4700000000000003E-2</v>
+        <v>0.38</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3">
-        <f>E7*0.8</f>
-        <v>5.9760000000000008E-2</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
-        <f>1.2*E7</f>
-        <v>8.9639999999999997E-2</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q7" si="2">IF(E7=H7, 1, IF(F7=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="3">
-        <v>0.34899999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
-        <v>0.41099999999999998</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8" si="2">IF(E8=H8, 1, IF(F8=$F$2, 1, 0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="3">
-        <v>0.2</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.28599999999999998</v>
+      </c>
       <c r="I9" s="3">
-        <v>0.20799999999999999</v>
+        <v>0.315</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
@@ -1029,35 +1023,37 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3">
-        <v>0.28599999999999998</v>
+        <v>0.10355</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3">
-        <v>0.17499999999999999</v>
+        <f>E10*0.9</f>
+        <v>9.3195E-2</v>
       </c>
       <c r="H10" s="3">
-        <v>0.28599999999999998</v>
+        <v>0.10355</v>
       </c>
       <c r="I10" s="3">
-        <v>0.315</v>
+        <f>E10*1.1</f>
+        <v>0.11390500000000001</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
@@ -1066,37 +1062,33 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3">
-        <v>0.10355</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G11" s="3">
-        <f>E11*0.9</f>
-        <v>9.3195E-2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.10355</v>
-      </c>
+        <v>-2.8799999999999999E-2</v>
+      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <f>E11*1.1</f>
-        <v>0.11390500000000001</v>
+        <v>7.7600000000000004E-3</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
@@ -1105,7 +1097,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1114,24 +1106,29 @@
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>126929</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="3">
-        <v>-2.8799999999999999E-2</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <f>E12*0.8</f>
+        <v>101543.20000000001</v>
+      </c>
+      <c r="H12" s="3">
+        <f>E12</f>
+        <v>126929</v>
+      </c>
       <c r="I12" s="3">
-        <v>7.7600000000000004E-3</v>
+        <f>E12*1.2</f>
+        <v>152314.79999999999</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
@@ -1140,38 +1137,33 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3">
-        <v>126929</v>
+        <v>0.21</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13">
-        <f>E13*0.8</f>
-        <v>101543.20000000001</v>
-      </c>
-      <c r="H13" s="3">
-        <f>E13</f>
-        <v>126929</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <f>E13*1.2</f>
-        <v>152314.79999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
@@ -1180,33 +1172,33 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="3">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
@@ -1215,85 +1207,87 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3">
-        <v>0.1</v>
+        <v>23</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="3">
-        <v>0.08</v>
+        <f>0.8*E15</f>
+        <v>18.400000000000002</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="J15" s="3"/>
+        <f>1.2*E15</f>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3">
-        <v>23</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="3">
-        <f>0.8*E16</f>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <f>1.2*E16</f>
-        <v>27.599999999999998</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
+      <c r="E16" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5">
+        <f>E16*0.08</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
+        <f>E16*1.2</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" ref="Q16:Q17" si="3">IF(E16=H16, 1, IF(F16=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>12</v>
@@ -1302,7 +1296,7 @@
         <v>0.01</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="5">
         <f>E17*0.08</f>
@@ -1315,108 +1309,106 @@
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" ref="Q17:Q18" si="3">IF(E17=H17, 1, IF(F17=$F$2, 1, 0))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="E18" s="5">
-        <v>0.01</v>
+        <v>0.91</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G18" s="5">
-        <f>E18*0.08</f>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="H18" s="5"/>
+        <f>H18*0.8</f>
+        <v>0.72800000000000009</v>
+      </c>
+      <c r="H18" s="5">
+        <f>E18</f>
+        <v>0.91</v>
+      </c>
       <c r="I18" s="5">
-        <f>E18*1.2</f>
-        <v>1.2E-2</v>
+        <f>H18*1.2</f>
+        <v>1.0920000000000001</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="5">
-        <f>H19*0.8</f>
-        <v>0.72800000000000009</v>
-      </c>
-      <c r="H19" s="5">
-        <f>E19</f>
-        <v>0.91</v>
-      </c>
-      <c r="I19" s="5">
-        <f>H19*1.2</f>
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="6">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19" si="4">IF(E19=H19, 1, IF(F19=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -1427,115 +1419,117 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="Q20">
-        <f t="shared" ref="Q20" si="4">IF(E20=H20, 1, IF(F20=$F$2, 1, 0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <f>1-2*(1-E21)</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="Q21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="3">
-        <f>1-2*(1-E22)</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22">
+    <row r="22" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="5">
+        <f>0.9*E22</f>
+        <v>6.3E-3</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <f>1.1*E22</f>
+        <v>7.7000000000000011E-3</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E23" s="5">
-        <v>7.0000000000000001E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="5">
-        <f>0.9*E23</f>
-        <v>6.3E-3</v>
+        <f>0.8*E23</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5">
-        <f>1.1*E23</f>
-        <v>7.7000000000000011E-3</v>
+        <f>1.2*E23</f>
+        <v>0.24</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
@@ -1544,35 +1538,35 @@
     </row>
     <row r="24" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5">
-        <v>0.16</v>
+        <v>28.23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="5">
-        <f>0.8*E24</f>
-        <v>0.128</v>
+        <f>E24*0.8</f>
+        <v>22.584000000000003</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5">
-        <f>1.2*E24</f>
-        <v>0.192</v>
+        <f>E24*1.2</f>
+        <v>33.875999999999998</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="1"/>
@@ -1581,31 +1575,31 @@
     </row>
     <row r="25" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="5">
-        <v>40.299999999999997</v>
+        <v>29</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="5">
         <f>E25*0.8</f>
-        <v>32.24</v>
+        <v>0.192</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5">
         <f>E25*1.2</f>
-        <v>48.359999999999992</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
@@ -1618,222 +1612,185 @@
     </row>
     <row r="26" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.17</v>
+        <v>19</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.15</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="5">
         <f>E26*0.8</f>
-        <v>0.13600000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5">
         <f>E26*1.2</f>
-        <v>0.20400000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="5">
-        <f>E27*0.8</f>
-        <v>0.12</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5">
-        <f>E27*1.2</f>
-        <v>0.18</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q27" s="6">
-        <f t="shared" si="1"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="3">
+        <f>E27*0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <f>E27*1.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ref="Q27" si="5">IF(E27=H27, 1, IF(F27=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G28" s="3">
-        <f>E28*0.9</f>
-        <v>0.9</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>134.4</v>
+      </c>
+      <c r="H28" s="3">
+        <v>168</v>
+      </c>
       <c r="I28" s="3">
-        <f>E28*1.1</f>
-        <v>1.1000000000000001</v>
+        <v>201.6</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Q28">
-        <f t="shared" ref="Q28" si="5">IF(E28=H28, 1, IF(F28=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q28:Q30" si="6">IF(E28=H28, 1, IF(F28=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>168</v>
+        <v>0.8</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G29" s="3">
-        <v>134.4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>168</v>
-      </c>
+        <f>E29*0.9</f>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="3">
-        <v>201.6</v>
+        <f>E29*1.1</f>
+        <v>0.88000000000000012</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q31" si="6">IF(E29=H29, 1, IF(F29=$F$2, 1, 0))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" s="3">
         <f>E30*0.9</f>
-        <v>0.72000000000000008</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3">
         <f>E30*1.1</f>
-        <v>0.88000000000000012</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="3">
-        <f>E31*0.9</f>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <f>E31*1.1</f>
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q31">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>

--- a/biorefineries/oxalic/analyses/full/parameter_distributions/oxalic_broth_product/parameter-distributions_sugarcane_oxalic-broth_100mL.xlsx
+++ b/biorefineries/oxalic/analyses/full/parameter_distributions/oxalic_broth_product/parameter-distributions_sugarcane_oxalic-broth_100mL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGB\Documents\GitHub\Bioindustrial-Park\biorefineries\oxalic\analyses\full\parameter_distributions\oxalic_broth_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E2B44C-98FB-46E8-B27F-12C8E13303BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ACA12B-2BF4-4440-9F5E-EB657CFF1BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24870" yWindow="1830" windowWidth="17280" windowHeight="8904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -814,6 +814,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="5">
+        <f>0.03592</f>
         <v>3.5920000000000001E-2</v>
       </c>
       <c r="F4" s="5" t="s">
